--- a/xlsx/美国国务卿_intext.xlsx
+++ b/xlsx/美国国务卿_intext.xlsx
@@ -20,718 +20,718 @@
     <t>美国国务卿</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E6%8F%90%E5%8B%92%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>雷克斯·提勒森</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>任期制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Title_22_of_the_United_States_Code</t>
+  </si>
+  <si>
+    <t>en-Title 22 of the United States Code</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国外交部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
+  </si>
+  <si>
+    <t>托马斯·杰斐逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>美国总统继任顺序</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>美国副国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%95%B7</t>
+  </si>
+  <si>
+    <t>首长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>美国外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E7%BB%A7%E4%BB%BB%E9%A1%BA%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E7%8E%BA</t>
+  </si>
+  <si>
+    <t>美国国玺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国务卿列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:USCabinet</t>
+  </si>
+  <si>
+    <t>Template talk-USCabinet</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国财政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国财政部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国防部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国司法部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国内政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国农业部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国商务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国劳工部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国卫生及公共服务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国住房及城市发展部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国运输部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国能源部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国教育部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国退伍军人事务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国土安全部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国空军部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国陆军部</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_Department_of_Commerce_and_Labor</t>
+  </si>
+  <si>
+    <t>en-United States Department of Commerce and Labor</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E3%80%81%E6%95%99%E8%82%B2%E5%8F%8A%E7%A6%8F%E5%88%A9%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国卫生、教育及福利部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国海军部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国邮政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国战争部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%A6%E9%81%93%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>埃德蒙·伦道夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E8%8E%AB%E8%A5%BF%C2%B7%E7%9A%AE%E5%85%8B%E6%9E%97</t>
+  </si>
+  <si>
+    <t>蒂莫西·皮克林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>约翰·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
+  </si>
+  <si>
+    <t>詹姆斯·麦迪逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>罗伯特·史密斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%97%A8%E7%BD%97</t>
+  </si>
+  <si>
+    <t>詹姆斯·门罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·昆西·亚当斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%85%8B%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>亨利·克莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%8C%83%E5%B8%83%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>马丁·范布伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%88%A9%E6%96%87%E6%96%AF%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>爱德华·利文斯顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%BA%A6%E5%85%8B%E8%8E%B1%E6%81%A9</t>
+  </si>
+  <si>
+    <t>路易斯·麦克莱恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E8%B5%9B%E6%80%9D_(%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
+  </si>
+  <si>
+    <t>约翰·福赛思 (政治人物)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E9%9F%A6%E4%BC%AF%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>丹尼尔·韦伯斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B8%83%E5%B0%94%C2%B7P%C2%B7%E5%8E%84%E6%99%AE%E8%88%8D</t>
+  </si>
+  <si>
+    <t>埃布尔·P·厄普舍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
+  </si>
+  <si>
+    <t>约翰·C·卡尔霍恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
+  </si>
+  <si>
+    <t>詹姆斯·布坎南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7M%C2%B7%E5%85%8B%E8%8E%B1%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>约翰·M·克莱顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%9F%83%E5%BC%97%E9%87%8C%E7%89%B9</t>
+  </si>
+  <si>
+    <t>爱德华·埃弗里特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7L%C2%B7%E9%A9%AC%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>威廉·L·马西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>刘易斯·卡斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E8%BF%88%E4%BA%9A%C2%B7S%C2%B7%E5%B8%83%E8%8E%B1%E5%85%8B</t>
+  </si>
+  <si>
+    <t>杰里迈亚·S·布莱克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7H%C2%B7%E8%8B%8F%E5%8E%84%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>威廉·H·苏厄德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%B1%E4%BC%91%C2%B7B%C2%B7%E6%B2%83%E4%BB%80%E4%BC%AF%E6%81%A9</t>
+  </si>
+  <si>
+    <t>伊莱休·B·沃什伯恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%C2%B7%E8%8F%B2%E4%BB%80</t>
+  </si>
+  <si>
+    <t>汉密尔顿·菲什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7M%C2%B7%E5%9F%83%E7%93%A6%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>威廉·M·埃瓦茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7G%C2%B7%E5%B8%83%E8%8E%B1%E6%81%A9</t>
+  </si>
+  <si>
+    <t>詹姆斯·G·布莱恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E5%BC%97%E9%87%8C%E6%9E%97%E6%B5%B7%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>弗雷德里克·西奥多·弗里林海森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7F%C2%B7%E8%B4%9D%E4%BA%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>托马斯·F·贝亚德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7W%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>约翰·W·福斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E7%A4%BC%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>葛礼山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%A5%A5%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>理查德·奥尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%88%8D%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>约翰·舍曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7R%C2%B7%E6%88%B4</t>
+  </si>
+  <si>
+    <t>威廉·R·戴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%BA%A6%E7%BF%B0</t>
+  </si>
+  <si>
+    <t>海约翰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%84%AB</t>
+  </si>
+  <si>
+    <t>罗脱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%9F%B9%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗伯特·培根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%85%B0%E5%BE%B7%C2%B7C%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>菲兰德·C·诺克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%AE%81%E6%96%AF%C2%B7%E5%B8%83%E8%8E%B1%E6%81%A9</t>
+  </si>
+  <si>
+    <t>威廉·詹宁斯·布莱恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%93%9D%E8%BE%9B</t>
+  </si>
+  <si>
+    <t>罗伯特·蓝辛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B8%83%E9%87%8C%E5%A5%87%C2%B7%E7%A7%91%E5%B0%94%E6%AF%94</t>
+  </si>
+  <si>
+    <t>班布里奇·科尔比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·埃文斯·休斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E5%85%8B%C2%B7B%C2%B7%E5%87%AF%E6%B4%9B%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>弗兰克·B·凯洛格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%88%98%E6%98%93%E6%96%AF%C2%B7%E5%8F%B2%E6%B1%80%E7%94%9F</t>
+  </si>
+  <si>
+    <t>亨利·刘易斯·史汀生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%BE%B7%E5%B0%94%C2%B7%E8%B5%AB%E5%B0%94</t>
+  </si>
+  <si>
+    <t>科德尔·赫尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%96%AF%E7%89%B9%E8%92%82%E7%BA%BD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>小爱德华·斯特蒂纽斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>詹姆斯·弗朗西斯·伯恩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%A1%E7%89%B9%E8%8E%B1%E7%89%B9%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>乔治·卡特莱特·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%AE%89%C2%B7%E8%89%BE%E5%A5%87%E9%80%8A</t>
+  </si>
+  <si>
+    <t>迪安·艾奇逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9%C2%B7%E6%9D%9C%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·福斯特·杜勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E8%B5%AB%E8%84%B1</t>
+  </si>
+  <si>
+    <t>克里斯蒂安·赫脱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%AE%89%C2%B7%E8%85%8A%E6%96%AF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>迪安·腊斯克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7P%C2%B7%E7%BD%97%E6%9D%B0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>威廉·P·罗杰斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%9F%BA%E8%BE%9B%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>亨利·基辛格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E5%8B%92%E6%96%AF%C2%B7%E4%B8%87%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛勒斯·万斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E9%A9%AC%E6%96%AF%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>埃德蒙·马斯基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E9%BB%91%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>亚历山大·黑格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%99%AE%E6%8B%89%E7%89%B9%C2%B7%E8%88%92%E5%B0%94%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>乔治·普拉特·舒尔茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B4%9D%E5%85%8B</t>
+  </si>
+  <si>
+    <t>詹姆斯·贝克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BC%A6%E6%96%AF%C2%B7%E4%BC%8A%E6%A0%BC%E5%B0%94%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>劳伦斯·伊格尔伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97</t>
+  </si>
+  <si>
+    <t>沃伦·克里斯托弗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E7%90%B3%C2%B7%E5%A5%A5%E5%B0%94%E5%B8%83%E8%B5%96%E7%89%B9</t>
+  </si>
+  <si>
+    <t>马德琳·奥尔布赖特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%C2%B7%E9%B2%8D%E5%A8%81%E5%B0%94</t>
+  </si>
+  <si>
+    <t>科林·鲍威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A4%9A%E8%8E%89%E6%89%8E%C2%B7%E8%B5%96%E6%96%AF</t>
+  </si>
+  <si>
+    <t>康多莉扎·赖斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E9%87%8C%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>希拉里·克林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C</t>
+  </si>
+  <si>
+    <t>约翰·克里</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E6%8F%90%E5%8B%92%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>雷克斯·提勒森</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国国务卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国国务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>任期制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美國法典</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Title_22_of_the_United_States_Code</t>
-  </si>
-  <si>
-    <t>en-Title 22 of the United States Code</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国外交部长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
-  </si>
-  <si>
-    <t>托马斯·杰斐逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>美國總統繼任順序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美國副國務卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國國務院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%95%B7</t>
-  </si>
-  <si>
-    <t>首長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>美国外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E7%BB%A7%E4%BB%BB%E9%A1%BA%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>美国总统继任顺序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国众议院议长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E7%8E%BA</t>
-  </si>
-  <si>
-    <t>美国国玺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美国副国务卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国务卿列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国国务院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国总理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:USCabinet</t>
-  </si>
-  <si>
-    <t>Template talk-USCabinet</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国财政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国财政部长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國司法部長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国内政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国农业部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国商务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國勞工部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国卫生及公共服务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國住房及城市發展部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國運輸部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國能源部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國教育部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國退伍軍人事務部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國國土安全部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國空軍部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国陆军部</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_Department_of_Commerce_and_Labor</t>
-  </si>
-  <si>
-    <t>en-United States Department of Commerce and Labor</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E3%80%81%E6%95%99%E8%82%B2%E5%8F%8A%E7%A6%8F%E5%88%A9%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国卫生、教育及福利部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国海军部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國郵政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國戰爭部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%A6%E9%81%93%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>埃德蒙·伦道夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E8%8E%AB%E8%A5%BF%C2%B7%E7%9A%AE%E5%85%8B%E6%9E%97</t>
-  </si>
-  <si>
-    <t>蒂莫西·皮克林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>约翰·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
-  </si>
-  <si>
-    <t>詹姆斯·麦迪逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>罗伯特·史密斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%97%A8%E7%BD%97</t>
-  </si>
-  <si>
-    <t>詹姆斯·门罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·昆西·亚当斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%85%8B%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>亨利·克莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%8C%83%E5%B8%83%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>马丁·范布伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%88%A9%E6%96%87%E6%96%AF%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>爱德华·利文斯顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%BA%A6%E5%85%8B%E8%8E%B1%E6%81%A9</t>
-  </si>
-  <si>
-    <t>路易斯·麦克莱恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E8%B5%9B%E6%80%9D_(%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
-  </si>
-  <si>
-    <t>约翰·福赛思 (政治人物)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E9%9F%A6%E4%BC%AF%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>丹尼尔·韦伯斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B8%83%E5%B0%94%C2%B7P%C2%B7%E5%8E%84%E6%99%AE%E8%88%8D</t>
-  </si>
-  <si>
-    <t>埃布尔·P·厄普舍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
-  </si>
-  <si>
-    <t>约翰·C·卡尔霍恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
-  </si>
-  <si>
-    <t>詹姆斯·布坎南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7M%C2%B7%E5%85%8B%E8%8E%B1%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>约翰·M·克莱顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%9F%83%E5%BC%97%E9%87%8C%E7%89%B9</t>
-  </si>
-  <si>
-    <t>爱德华·埃弗里特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7L%C2%B7%E9%A9%AC%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>威廉·L·马西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>刘易斯·卡斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E8%BF%88%E4%BA%9A%C2%B7S%C2%B7%E5%B8%83%E8%8E%B1%E5%85%8B</t>
-  </si>
-  <si>
-    <t>杰里迈亚·S·布莱克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7H%C2%B7%E8%8B%8F%E5%8E%84%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>威廉·H·苏厄德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%B1%E4%BC%91%C2%B7B%C2%B7%E6%B2%83%E4%BB%80%E4%BC%AF%E6%81%A9</t>
-  </si>
-  <si>
-    <t>伊莱休·B·沃什伯恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%C2%B7%E8%8F%B2%E4%BB%80</t>
-  </si>
-  <si>
-    <t>汉密尔顿·菲什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7M%C2%B7%E5%9F%83%E7%93%A6%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>威廉·M·埃瓦茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7G%C2%B7%E5%B8%83%E8%8E%B1%E6%81%A9</t>
-  </si>
-  <si>
-    <t>詹姆斯·G·布莱恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E5%BC%97%E9%87%8C%E6%9E%97%E6%B5%B7%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>弗雷德里克·西奥多·弗里林海森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7F%C2%B7%E8%B4%9D%E4%BA%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>托马斯·F·贝亚德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7W%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>约翰·W·福斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E7%A4%BC%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>葛礼山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%A5%A5%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>理查德·奥尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%88%8D%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>约翰·舍曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7R%C2%B7%E6%88%B4</t>
-  </si>
-  <si>
-    <t>威廉·R·戴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%BA%A6%E7%BF%B0</t>
-  </si>
-  <si>
-    <t>海约翰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%84%AB</t>
-  </si>
-  <si>
-    <t>羅脫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%9F%B9%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗伯特·培根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%85%B0%E5%BE%B7%C2%B7C%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>菲兰德·C·诺克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%AE%81%E6%96%AF%C2%B7%E5%B8%83%E8%8E%B1%E6%81%A9</t>
-  </si>
-  <si>
-    <t>威廉·詹宁斯·布莱恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%93%9D%E8%BE%9B</t>
-  </si>
-  <si>
-    <t>罗伯特·蓝辛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B8%83%E9%87%8C%E5%A5%87%C2%B7%E7%A7%91%E5%B0%94%E6%AF%94</t>
-  </si>
-  <si>
-    <t>班布里奇·科尔比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·埃文斯·休斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E5%85%8B%C2%B7B%C2%B7%E5%87%AF%E6%B4%9B%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>弗兰克·B·凯洛格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%88%98%E6%98%93%E6%96%AF%C2%B7%E5%8F%B2%E6%B1%80%E7%94%9F</t>
-  </si>
-  <si>
-    <t>亨利·刘易斯·史汀生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%BE%B7%E5%B0%94%C2%B7%E8%B5%AB%E5%B0%94</t>
-  </si>
-  <si>
-    <t>科德尔·赫尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%96%AF%E7%89%B9%E8%92%82%E7%BA%BD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>小爱德华·斯特蒂纽斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>詹姆斯·弗朗西斯·伯恩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%A1%E7%89%B9%E8%8E%B1%E7%89%B9%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>乔治·卡特莱特·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%AE%89%C2%B7%E8%89%BE%E5%A5%87%E9%80%8A</t>
-  </si>
-  <si>
-    <t>迪安·艾奇逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9%C2%B7%E6%9D%9C%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·福斯特·杜勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E8%B5%AB%E8%84%B1</t>
-  </si>
-  <si>
-    <t>克里斯蒂安·赫脱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%AE%89%C2%B7%E8%85%8A%E6%96%AF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>迪安·腊斯克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7P%C2%B7%E7%BD%97%E6%9D%B0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>威廉·P·罗杰斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%9F%BA%E8%BE%9B%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>亨利·基辛格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E5%8B%92%E6%96%AF%C2%B7%E4%B8%87%E6%96%AF</t>
-  </si>
-  <si>
-    <t>赛勒斯·万斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E9%A9%AC%E6%96%AF%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>埃德蒙·马斯基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E9%BB%91%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>亚历山大·黑格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%99%AE%E6%8B%89%E7%89%B9%C2%B7%E8%88%92%E5%B0%94%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>乔治·普拉特·舒尔茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B4%9D%E5%85%8B</t>
-  </si>
-  <si>
-    <t>詹姆斯·贝克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BC%A6%E6%96%AF%C2%B7%E4%BC%8A%E6%A0%BC%E5%B0%94%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>劳伦斯·伊格尔伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97</t>
-  </si>
-  <si>
-    <t>沃伦·克里斯托弗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E7%90%B3%C2%B7%E5%A5%A5%E5%B0%94%E5%B8%83%E8%B5%96%E7%89%B9</t>
-  </si>
-  <si>
-    <t>马德琳·奥尔布赖特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%C2%B7%E9%B2%8D%E5%A8%81%E5%B0%94</t>
-  </si>
-  <si>
-    <t>科林·鲍威尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A4%9A%E8%8E%89%E6%89%8E%C2%B7%E8%B5%96%E6%96%AF</t>
-  </si>
-  <si>
-    <t>康多莉扎·赖斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E9%87%8C%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>希拉里·克林顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C</t>
-  </si>
-  <si>
-    <t>约翰·克里</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1682,7 +1682,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1824,10 +1824,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1853,10 +1853,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1882,10 +1882,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1911,10 +1911,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1998,10 +1998,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -2027,10 +2027,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2056,10 +2056,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2085,10 +2085,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2114,10 +2114,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -2201,10 +2201,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2230,10 +2230,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G41" t="n">
         <v>18</v>
@@ -2288,10 +2288,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2317,10 +2317,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2346,10 +2346,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2375,10 +2375,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2404,10 +2404,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2433,10 +2433,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2462,10 +2462,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2491,10 +2491,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2549,10 +2549,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2578,10 +2578,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2607,10 +2607,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2636,10 +2636,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2694,10 +2694,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2723,10 +2723,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2752,10 +2752,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2781,10 +2781,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2810,10 +2810,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2839,10 +2839,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2868,10 +2868,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2897,10 +2897,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2926,10 +2926,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2955,10 +2955,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2984,10 +2984,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3013,10 +3013,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3042,10 +3042,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3071,10 +3071,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3100,10 +3100,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3129,10 +3129,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3158,10 +3158,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3187,10 +3187,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3216,10 +3216,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3245,10 +3245,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3274,10 +3274,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3332,10 +3332,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3361,10 +3361,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3390,10 +3390,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3419,10 +3419,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3448,10 +3448,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3506,10 +3506,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3535,10 +3535,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3564,10 +3564,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3593,10 +3593,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3622,10 +3622,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3651,10 +3651,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3680,10 +3680,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3738,10 +3738,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3767,10 +3767,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3825,10 +3825,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3854,10 +3854,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3883,10 +3883,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3941,10 +3941,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3970,10 +3970,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3999,10 +3999,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4028,10 +4028,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4057,10 +4057,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4086,10 +4086,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4144,10 +4144,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4173,10 +4173,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4202,10 +4202,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4231,10 +4231,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4260,10 +4260,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4289,10 +4289,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4318,10 +4318,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4376,10 +4376,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4405,10 +4405,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4492,10 +4492,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4521,10 +4521,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4550,10 +4550,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4579,10 +4579,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4608,10 +4608,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4637,10 +4637,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4666,10 +4666,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4695,10 +4695,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4753,18 +4753,76 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F127" t="s">
+        <v>235</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>127</v>
+      </c>
+      <c r="E128" t="s">
+        <v>236</v>
+      </c>
+      <c r="F128" t="s">
         <v>237</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="s">
+        <v>4</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>128</v>
+      </c>
+      <c r="E129" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" t="s">
         <v>238</v>
       </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
-        <v>4</v>
-      </c>
-      <c r="I127" t="n">
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" t="n">
         <v>3</v>
       </c>
     </row>
